--- a/config/region/harari/model_inputs_demo_harari.xlsx
+++ b/config/region/harari/model_inputs_demo_harari.xlsx
@@ -1,16 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bmgf-my.sharepoint.com/personal/rui_han_gatesfoundation_org/Documents/Documents/GitHub/PACE-HRH-UI/config/region/harari/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="8_{7A1F7297-6E19-4B78-87E9-6C3522D327DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4CECC26E-1F53-4E93-99C2-92990A2E85A2}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C959C89-785D-4203-9299-5FD4DBF6B43A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" firstSheet="6" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1837" yWindow="1837" windowWidth="21600" windowHeight="11018" firstSheet="6" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Read Me" sheetId="77" r:id="rId1"/>
@@ -31,9 +26,6 @@
     <sheet name="Data dictionary Scenarios" sheetId="63" r:id="rId16"/>
     <sheet name="Lookup" sheetId="84" r:id="rId17"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId18"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">TaskValues_basic!$B$1:$Q$15</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">TaskValues_expanded!$B$1:$P$22</definedName>
@@ -45,8 +37,8 @@
     <definedName name="total_pop" localSheetId="5">RuralPop!#REF!</definedName>
     <definedName name="total_pop" localSheetId="4">TotalPop!#REF!</definedName>
     <definedName name="total_pop">#REF!</definedName>
-    <definedName name="total_pop2" localSheetId="3">[1]Demographics_Total!$CZ$3</definedName>
-    <definedName name="total_pop2">[1]Demographics_Total!$CZ$3</definedName>
+    <definedName name="total_pop2" localSheetId="3">#REF!</definedName>
+    <definedName name="total_pop2">#REF!</definedName>
     <definedName name="weeks" localSheetId="3">#REF!</definedName>
     <definedName name="weeks">#REF!</definedName>
   </definedNames>
@@ -190,7 +182,7 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>Rui Han (AgileOne)</author>
+    <author>Author</author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
@@ -226,7 +218,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Rui Han (AgileOne):</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -248,7 +240,7 @@
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>Rui Han (AgileOne)</author>
+    <author>Author</author>
   </authors>
   <commentList>
     <comment ref="C2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0B00-000001000000}">
@@ -261,7 +253,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Rui Han (AgileOne):</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -282,7 +274,7 @@
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>Rui Han (AgileOne)</author>
+    <author>Author</author>
   </authors>
   <commentList>
     <comment ref="C2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0C00-000001000000}">
@@ -295,7 +287,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Rui Han (AgileOne):</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -2401,1547 +2393,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>781050</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="100377" name="Text Box 1049" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F41633E-4B94-DC9C-0A95-7D56AC102999}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2025650" y="0"/>
-          <a:ext cx="1308100" cy="781050"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFE1"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:effectLst>
-                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="000000"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a14:hiddenEffects>
-          </a:ext>
-          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
-            <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="1"/>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>781050</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="100376" name="Text Box 1048" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF11DFFF-49B3-7A41-E1E1-11AF48FB7466}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2717800" y="0"/>
-          <a:ext cx="1301750" cy="781050"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFE1"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:effectLst>
-                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="000000"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a14:hiddenEffects>
-          </a:ext>
-          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
-            <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="1"/>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>781050</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="100375" name="Text Box 1047" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F09C8AC-D1F8-BFAE-8719-714871400B5E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="4781550" y="0"/>
-          <a:ext cx="1371600" cy="781050"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFE1"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:effectLst>
-                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="000000"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a14:hiddenEffects>
-          </a:ext>
-          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
-            <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="1"/>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>838200</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>781050</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="100374" name="Text Box 1046" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BA95DC2-D991-76E2-A085-080AA384F674}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="5657850" y="0"/>
-          <a:ext cx="1333500" cy="781050"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFE1"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:effectLst>
-                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="000000"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a14:hiddenEffects>
-          </a:ext>
-          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
-            <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="1"/>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1066800</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>781050</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="100373" name="Text Box 1045" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3298CFB9-B2EE-8A83-6B82-804A46A7FED1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7219950" y="0"/>
-          <a:ext cx="1295400" cy="781050"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFE1"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:effectLst>
-                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="000000"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a14:hiddenEffects>
-          </a:ext>
-          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
-            <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="1"/>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>781050</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>781050</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="100372" name="Text Box 1044" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C902D082-2147-AC14-E7BB-AF5002F7283A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7645400" y="0"/>
-          <a:ext cx="1365250" cy="781050"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFE1"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:effectLst>
-                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="000000"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a14:hiddenEffects>
-          </a:ext>
-          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
-            <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="1"/>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>781050</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="100371" name="Text Box 1043" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA5EE0C9-5741-9B5E-7DB1-2917A108DEBA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1358900" y="0"/>
-          <a:ext cx="1301750" cy="781050"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFE1"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:effectLst>
-                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="000000"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a14:hiddenEffects>
-          </a:ext>
-          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
-            <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="1"/>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>1143000</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>781050</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="100370" name="Text Box 1042" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10E1DF78-B9B5-C02F-8995-B197800AEACE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="9182100" y="0"/>
-          <a:ext cx="1301750" cy="781050"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFE1"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:effectLst>
-                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="000000"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a14:hiddenEffects>
-          </a:ext>
-          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
-            <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="1"/>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>1047750</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>933450</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>781050</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="100369" name="Text Box 1041" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBACA708-1E34-3251-62BB-7C2A3A3FD684}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="10388600" y="0"/>
-          <a:ext cx="1149350" cy="781050"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFE1"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:effectLst>
-                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="000000"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a14:hiddenEffects>
-          </a:ext>
-          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
-            <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="1"/>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>762000</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>781050</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="100368" name="Text Box 1040" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C226840D-11BD-61AF-8B01-56C9D0AD9589}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="11537950" y="0"/>
-          <a:ext cx="533400" cy="781050"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFE1"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:effectLst>
-                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="000000"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a14:hiddenEffects>
-          </a:ext>
-          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
-            <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="1"/>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>781050</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="100367" name="Text Box 1039" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{086D49F5-9E53-AFE3-3F96-C0309B2AB16B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="11918950" y="0"/>
-          <a:ext cx="552450" cy="781050"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFE1"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:effectLst>
-                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="000000"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a14:hiddenEffects>
-          </a:ext>
-          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
-            <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="1"/>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>1085850</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>800100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="100366" name="Text Box 1038" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49D74E8B-8C62-0D0A-3FD1-E338D02A3FE3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="12299950" y="19050"/>
-          <a:ext cx="762000" cy="781050"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFE1"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:effectLst>
-                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="000000"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a14:hiddenEffects>
-          </a:ext>
-          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
-            <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="1"/>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>781050</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="100353" name="Text Box 1025" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A41926C-AF73-E6C9-D73D-3BC3560BC14E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2025650" y="0"/>
-          <a:ext cx="1308100" cy="781050"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFE1" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="80"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="510000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:effectLst>
-                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="510000"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a14:hiddenEffects>
-          </a:ext>
-          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
-            <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="1"/>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>781050</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="100354" name="Text Box 1026" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97467CF5-559B-E653-D9C3-B689F7867125}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2717800" y="0"/>
-          <a:ext cx="1301750" cy="781050"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFE1" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="80"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="510000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:effectLst>
-                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="510000"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a14:hiddenEffects>
-          </a:ext>
-          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
-            <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="1"/>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>781050</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="100355" name="Text Box 1027" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB01B9C4-10AB-3419-5944-C079C3395042}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="4781550" y="0"/>
-          <a:ext cx="1371600" cy="781050"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFE1" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="80"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="510000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:effectLst>
-                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="510000"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a14:hiddenEffects>
-          </a:ext>
-          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
-            <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="1"/>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>838200</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>781050</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="100356" name="Text Box 1028" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F74888A2-FEE7-D6EF-76BC-202DC6C1537D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="5657850" y="0"/>
-          <a:ext cx="1333500" cy="781050"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFE1" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="80"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="510000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:effectLst>
-                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="510000"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a14:hiddenEffects>
-          </a:ext>
-          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
-            <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="1"/>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1066800</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>781050</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="100357" name="Text Box 1029" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E304461E-9B7A-EA54-D74A-D48BD0208E8A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7219950" y="0"/>
-          <a:ext cx="1295400" cy="781050"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFE1" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="80"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="510000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:effectLst>
-                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="510000"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a14:hiddenEffects>
-          </a:ext>
-          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
-            <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="1"/>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>781050</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>781050</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="100358" name="Text Box 1030" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AEC4330-97B1-B755-27F3-1A2D3553A03D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7645400" y="0"/>
-          <a:ext cx="1365250" cy="781050"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFE1" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="80"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="510000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:effectLst>
-                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="510000"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a14:hiddenEffects>
-          </a:ext>
-          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
-            <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="1"/>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>781050</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="100359" name="Text Box 1031" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91BDB4CD-A102-F8DE-581F-B783BDA3B5C8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1358900" y="0"/>
-          <a:ext cx="1301750" cy="781050"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFE1" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="80"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="510000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:effectLst>
-                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="510000"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a14:hiddenEffects>
-          </a:ext>
-          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
-            <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="1"/>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>1143000</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>781050</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="100360" name="Text Box 1032" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{102A72C0-4712-A97D-0818-633282200D82}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="9182100" y="0"/>
-          <a:ext cx="1301750" cy="781050"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFE1" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="80"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="510000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:effectLst>
-                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="510000"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a14:hiddenEffects>
-          </a:ext>
-          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
-            <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="1"/>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>1047750</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>933450</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>781050</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="100361" name="Text Box 1033" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5F6EE49-F4D5-884D-92EA-A2E5EE201933}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="10388600" y="0"/>
-          <a:ext cx="1149350" cy="781050"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFE1" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="80"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="510000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:effectLst>
-                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="510000"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a14:hiddenEffects>
-          </a:ext>
-          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
-            <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="1"/>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>762000</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>781050</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="100362" name="Text Box 1034" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2520B9C6-267F-3F4D-E26E-3B866B2A7150}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="11537950" y="0"/>
-          <a:ext cx="533400" cy="781050"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFE1" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="80"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="510000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:effectLst>
-                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="510000"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a14:hiddenEffects>
-          </a:ext>
-          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
-            <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="1"/>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>781050</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="100363" name="Text Box 1035" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{417FB356-D5D1-0481-4E64-2EA893A1052E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="11918950" y="0"/>
-          <a:ext cx="552450" cy="781050"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFE1" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="80"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="510000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:effectLst>
-                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="510000"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a14:hiddenEffects>
-          </a:ext>
-          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
-            <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="1"/>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>1085850</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>800100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="100365" name="Text Box 1037" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41825A21-2417-31F1-3F45-CC305F5C5336}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="12299950" y="19050"/>
-          <a:ext cx="762000" cy="781050"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFE1" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="80"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="510000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:effectLst>
-                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="510000"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a14:hiddenEffects>
-          </a:ext>
-          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
-            <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="1"/>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>5</xdr:row>
@@ -4199,7 +2650,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
@@ -4332,7 +2783,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
@@ -4463,156 +2914,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="To Do or Upgrade"/>
-      <sheetName val="Inputs Assump"/>
-      <sheetName val="C FTE Equiv"/>
-      <sheetName val="C Tot Hrs by Cat"/>
-      <sheetName val="C Variance"/>
-      <sheetName val="Time Summary"/>
-      <sheetName val="C Hrs by Category (3)"/>
-      <sheetName val="C Hrs by Category (2)"/>
-      <sheetName val="C Ratio to Baseline"/>
-      <sheetName val="Pie 2020"/>
-      <sheetName val="Calculations"/>
-      <sheetName val="Demographics_InCalc"/>
-      <sheetName val="Births"/>
-      <sheetName val="Mortality"/>
-      <sheetName val="FH.MC"/>
-      <sheetName val="FH.FP"/>
-      <sheetName val="FH.Im"/>
-      <sheetName val="FH.N"/>
-      <sheetName val="DPC"/>
-      <sheetName val="Other"/>
-      <sheetName val="DATA"/>
-      <sheetName val="Ssn Malaria"/>
-      <sheetName val="Ssn Nutr"/>
-      <sheetName val="Ssn Measles"/>
-      <sheetName val="Demographics_Total"/>
-      <sheetName val="Prevalences"/>
-      <sheetName val="Work time"/>
-      <sheetName val="Sheet21"/>
-      <sheetName val="Services summary"/>
-      <sheetName val="Services ref"/>
-      <sheetName val="Coverage impacts"/>
-      <sheetName val="Pop M"/>
-      <sheetName val="Pop F"/>
-      <sheetName val="TB Incidence"/>
-      <sheetName val="Malaria Incid"/>
-      <sheetName val="C Fertility"/>
-      <sheetName val="fertility"/>
-      <sheetName val="FP mod"/>
-      <sheetName val="unmet need"/>
-      <sheetName val="HIV Prev"/>
-      <sheetName val="HIV Incid"/>
-      <sheetName val="mort infant"/>
-      <sheetName val="mort 1-5"/>
-      <sheetName val="mort 5-9"/>
-      <sheetName val="mort 10-14"/>
-      <sheetName val="mort 15-19"/>
-      <sheetName val="mort 20-24"/>
-      <sheetName val="mort adult f"/>
-      <sheetName val="mort adult m"/>
-      <sheetName val="Staffing Ratios"/>
-      <sheetName val="fertility 15-19"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1">
-        <row r="4">
-          <cell r="C4" t="str">
-            <v>Ratio max rural</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11">
-        <row r="4">
-          <cell r="V4">
-            <v>105.34416988791497</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
-      <sheetData sheetId="16" refreshError="1"/>
-      <sheetData sheetId="17" refreshError="1"/>
-      <sheetData sheetId="18" refreshError="1"/>
-      <sheetData sheetId="19" refreshError="1"/>
-      <sheetData sheetId="20" refreshError="1"/>
-      <sheetData sheetId="21" refreshError="1"/>
-      <sheetData sheetId="22" refreshError="1"/>
-      <sheetData sheetId="23" refreshError="1"/>
-      <sheetData sheetId="24">
-        <row r="3">
-          <cell r="CZ3">
-            <v>115103531.71799999</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="25" refreshError="1"/>
-      <sheetData sheetId="26" refreshError="1"/>
-      <sheetData sheetId="27" refreshError="1"/>
-      <sheetData sheetId="28" refreshError="1"/>
-      <sheetData sheetId="29" refreshError="1"/>
-      <sheetData sheetId="30" refreshError="1"/>
-      <sheetData sheetId="31" refreshError="1"/>
-      <sheetData sheetId="32" refreshError="1"/>
-      <sheetData sheetId="33" refreshError="1"/>
-      <sheetData sheetId="34" refreshError="1"/>
-      <sheetData sheetId="35" refreshError="1"/>
-      <sheetData sheetId="36" refreshError="1"/>
-      <sheetData sheetId="37" refreshError="1"/>
-      <sheetData sheetId="38" refreshError="1"/>
-      <sheetData sheetId="39">
-        <row r="77">
-          <cell r="BC77">
-            <v>1.4</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="40">
-        <row r="77">
-          <cell r="A77" t="str">
-            <v>Ethiopia</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="41" refreshError="1"/>
-      <sheetData sheetId="42" refreshError="1"/>
-      <sheetData sheetId="43" refreshError="1"/>
-      <sheetData sheetId="44" refreshError="1"/>
-      <sheetData sheetId="45" refreshError="1"/>
-      <sheetData sheetId="46" refreshError="1"/>
-      <sheetData sheetId="47" refreshError="1"/>
-      <sheetData sheetId="48" refreshError="1"/>
-      <sheetData sheetId="49" refreshError="1"/>
-      <sheetData sheetId="50" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="Rui Han (AgileOne)" id="{9909CE15-4B7B-4B12-B2AC-B027CA4AD901}" userId="S::rui.han@gatesfoundation.org::8e2486fc-4f63-445b-b2ee-a849708c4214" providerId="AD"/>
-  <person displayName="Brittany Hagedorn" id="{03786AFB-E7BB-4FA7-846C-835FB448EEBC}" userId="S::Brittany.Hagedorn@gatesfoundation.org::5a602c7b-e691-4c99-b6e7-afdfc0897536" providerId="AD"/>
-</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4912,40 +3213,40 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="A1" dT="2022-11-12T18:35:53.10" personId="{03786AFB-E7BB-4FA7-846C-835FB448EEBC}" id="{328CAD55-03AD-4788-A8E4-651178ABBA8A}">
+  <threadedComment ref="A1" dT="2022-11-12T18:35:53.10" personId="{00000000-0000-0000-0000-000000000000}" id="{328CAD55-03AD-4788-A8E4-651178ABBA8A}">
     <text>Needs to be a unique value, but the text content does not matter. It is easier to work with the results if there are not spaces in the names.</text>
   </threadedComment>
-  <threadedComment ref="B1" dT="2022-11-12T18:33:54.25" personId="{03786AFB-E7BB-4FA7-846C-835FB448EEBC}" id="{48830E88-85FB-4EF7-929D-D5F68EF17275}">
+  <threadedComment ref="B1" dT="2022-11-12T18:33:54.25" personId="{00000000-0000-0000-0000-000000000000}" id="{48830E88-85FB-4EF7-929D-D5F68EF17275}">
     <text>Should be &lt;= 52</text>
   </threadedComment>
-  <threadedComment ref="C1" dT="2022-11-12T18:34:11.60" personId="{03786AFB-E7BB-4FA7-846C-835FB448EEBC}" id="{FEADEA4A-B72E-4A9D-858D-15AEFC2C5D84}">
+  <threadedComment ref="C1" dT="2022-11-12T18:34:11.60" personId="{00000000-0000-0000-0000-000000000000}" id="{FEADEA4A-B72E-4A9D-858D-15AEFC2C5D84}">
     <text>Should typically be &lt;= 40</text>
   </threadedComment>
-  <threadedComment ref="F1" dT="2022-11-12T18:34:44.31" personId="{03786AFB-E7BB-4FA7-846C-835FB448EEBC}" id="{4B821083-4883-4DD4-8E34-3EE4038314CD}">
+  <threadedComment ref="F1" dT="2022-11-12T18:34:44.31" personId="{00000000-0000-0000-0000-000000000000}" id="{4B821083-4883-4DD4-8E34-3EE4038314CD}">
     <text>Typically TRUE except for scenario analysis</text>
   </threadedComment>
-  <threadedComment ref="G1" dT="2022-11-12T18:34:48.58" personId="{03786AFB-E7BB-4FA7-846C-835FB448EEBC}" id="{1DF2B7BE-0D6C-4A5C-A888-20C5FF4E092F}">
+  <threadedComment ref="G1" dT="2022-11-12T18:34:48.58" personId="{00000000-0000-0000-0000-000000000000}" id="{1DF2B7BE-0D6C-4A5C-A888-20C5FF4E092F}">
     <text>Typically TRUE except for scenario analysis</text>
   </threadedComment>
-  <threadedComment ref="H1" dT="2022-11-12T18:34:52.99" personId="{03786AFB-E7BB-4FA7-846C-835FB448EEBC}" id="{2D782116-F72C-4F5F-8902-A8D67CBE7111}">
+  <threadedComment ref="H1" dT="2022-11-12T18:34:52.99" personId="{00000000-0000-0000-0000-000000000000}" id="{2D782116-F72C-4F5F-8902-A8D67CBE7111}">
     <text>Typically TRUE except for scenario analysis</text>
   </threadedComment>
-  <threadedComment ref="I1" dT="2022-11-12T18:34:57.44" personId="{03786AFB-E7BB-4FA7-846C-835FB448EEBC}" id="{937C2882-FF84-4DCB-B0AB-DCC54FB4D5E9}">
+  <threadedComment ref="I1" dT="2022-11-12T18:34:57.44" personId="{00000000-0000-0000-0000-000000000000}" id="{937C2882-FF84-4DCB-B0AB-DCC54FB4D5E9}">
     <text>Typically TRUE except for scenario analysis</text>
   </threadedComment>
-  <threadedComment ref="J1" dT="2022-11-12T18:36:24.37" personId="{03786AFB-E7BB-4FA7-846C-835FB448EEBC}" id="{407F3D1C-2F4A-4373-AB04-136CA0DC1F4D}">
+  <threadedComment ref="J1" dT="2022-11-12T18:36:24.37" personId="{00000000-0000-0000-0000-000000000000}" id="{407F3D1C-2F4A-4373-AB04-136CA0DC1F4D}">
     <text>The exact name (including capitalization) of a tab in this workbook that contains the task values information.</text>
   </threadedComment>
-  <threadedComment ref="K1" dT="2022-11-12T18:36:40.56" personId="{03786AFB-E7BB-4FA7-846C-835FB448EEBC}" id="{81CABEFC-7899-4C7A-B9AE-4E2D5F662376}">
+  <threadedComment ref="K1" dT="2022-11-12T18:36:40.56" personId="{00000000-0000-0000-0000-000000000000}" id="{81CABEFC-7899-4C7A-B9AE-4E2D5F662376}">
     <text>The exact name (including capitalization) of a tab in this workbook that contains the initial population demographics.</text>
   </threadedComment>
-  <threadedComment ref="L1" dT="2022-11-12T18:37:20.11" personId="{03786AFB-E7BB-4FA7-846C-835FB448EEBC}" id="{014F1C08-667B-46ED-851F-81B8588E32D0}">
+  <threadedComment ref="L1" dT="2022-11-12T18:37:20.11" personId="{00000000-0000-0000-0000-000000000000}" id="{014F1C08-667B-46ED-851F-81B8588E32D0}">
     <text>The exact name (including capitalization) of a tab in this workbook that contains the seasonality information. Can be one or multiple tabs, but only one is used per scenario run.</text>
   </threadedComment>
-  <threadedComment ref="M1" dT="2022-11-12T18:37:39.80" personId="{03786AFB-E7BB-4FA7-846C-835FB448EEBC}" id="{4CC0DF8F-AAA1-4EBE-B532-0D230C5FDFB7}">
+  <threadedComment ref="M1" dT="2022-11-12T18:37:39.80" personId="{00000000-0000-0000-0000-000000000000}" id="{4CC0DF8F-AAA1-4EBE-B532-0D230C5FDFB7}">
     <text>The exact name (including capitalization) of a tab in this workbook that contains the cadre task allocations. Can be one or multiple tabs, but only one is used per scenario run.</text>
   </threadedComment>
-  <threadedComment ref="N1" dT="2023-06-06T20:39:28.17" personId="{9909CE15-4B7B-4B12-B2AC-B027CA4AD901}" id="{E0287D98-688F-4109-B85D-5FB1C1026365}">
+  <threadedComment ref="N1" dT="2023-06-06T20:39:28.17" personId="{00000000-0000-0000-0000-000000000000}" id="{E0287D98-688F-4109-B85D-5FB1C1026365}">
     <text>The exact name (including capitalization) of a tab in this workbook that contains the task-specific coverage rates. Can be one or multiple tabs, but only one is used per scenario run.</text>
   </threadedComment>
 </ThreadedComments>
@@ -4962,14 +3263,14 @@
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.9296875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>290</v>
       </c>
@@ -4983,7 +3284,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>297</v>
       </c>
@@ -4997,7 +3298,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B6" s="2" t="s">
         <v>238</v>
       </c>
@@ -5006,22 +3307,22 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:18" x14ac:dyDescent="0.45">
       <c r="H11" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:18" x14ac:dyDescent="0.45">
       <c r="H12" t="s">
         <v>125</v>
       </c>
@@ -5045,28 +3346,28 @@
       <selection pane="bottomLeft" activeCell="H14" sqref="H14:H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.9296875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="27.90625" customWidth="1"/>
-    <col min="2" max="2" width="19.7265625" customWidth="1"/>
-    <col min="3" max="3" width="35.81640625" customWidth="1"/>
-    <col min="4" max="4" width="12.81640625" customWidth="1"/>
-    <col min="5" max="5" width="12.08984375" customWidth="1"/>
-    <col min="6" max="6" width="14.453125" customWidth="1"/>
-    <col min="7" max="7" width="12.26953125" customWidth="1"/>
-    <col min="8" max="8" width="16.90625" customWidth="1"/>
-    <col min="9" max="9" width="22.36328125" customWidth="1"/>
-    <col min="10" max="10" width="13.453125" customWidth="1"/>
-    <col min="11" max="11" width="32.81640625" customWidth="1"/>
-    <col min="12" max="12" width="16.453125" customWidth="1"/>
-    <col min="13" max="13" width="19.1796875" customWidth="1"/>
-    <col min="14" max="14" width="18.7265625" customWidth="1"/>
+    <col min="1" max="1" width="27.9296875" customWidth="1"/>
+    <col min="2" max="2" width="19.73046875" customWidth="1"/>
+    <col min="3" max="3" width="35.796875" customWidth="1"/>
+    <col min="4" max="4" width="12.796875" customWidth="1"/>
+    <col min="5" max="5" width="12.06640625" customWidth="1"/>
+    <col min="6" max="6" width="14.46484375" customWidth="1"/>
+    <col min="7" max="7" width="12.265625" customWidth="1"/>
+    <col min="8" max="8" width="16.9296875" customWidth="1"/>
+    <col min="9" max="9" width="22.33203125" customWidth="1"/>
+    <col min="10" max="10" width="13.46484375" customWidth="1"/>
+    <col min="11" max="11" width="32.796875" customWidth="1"/>
+    <col min="12" max="12" width="16.46484375" customWidth="1"/>
+    <col min="13" max="13" width="19.19921875" customWidth="1"/>
+    <col min="14" max="14" width="18.73046875" customWidth="1"/>
     <col min="15" max="15" width="15" customWidth="1"/>
-    <col min="16" max="16" width="14.26953125" customWidth="1"/>
-    <col min="17" max="17" width="16.6328125" customWidth="1"/>
+    <col min="16" max="16" width="14.265625" customWidth="1"/>
+    <col min="17" max="17" width="16.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="87.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" ht="87.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="36" t="s">
         <v>462</v>
       </c>
@@ -5119,7 +3420,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A2" s="43" t="s">
         <v>479</v>
       </c>
@@ -5160,7 +3461,7 @@
       </c>
       <c r="P2" s="50"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A3" s="51" t="s">
         <v>479</v>
       </c>
@@ -5201,7 +3502,7 @@
       </c>
       <c r="P3" s="35"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A4" s="51" t="s">
         <v>479</v>
       </c>
@@ -5243,7 +3544,7 @@
       </c>
       <c r="P4" s="35"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A5" s="51" t="s">
         <v>479</v>
       </c>
@@ -5285,7 +3586,7 @@
       </c>
       <c r="P5" s="35"/>
     </row>
-    <row r="6" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="52" t="s">
         <v>479</v>
       </c>
@@ -5327,7 +3628,7 @@
       </c>
       <c r="P6" s="59"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>500</v>
       </c>
@@ -5369,7 +3670,7 @@
       </c>
       <c r="P7" s="35"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>500</v>
       </c>
@@ -5411,7 +3712,7 @@
       </c>
       <c r="P8" s="35"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>500</v>
       </c>
@@ -5453,7 +3754,7 @@
       </c>
       <c r="P9" s="35"/>
     </row>
-    <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>500</v>
       </c>
@@ -5495,7 +3796,7 @@
       </c>
       <c r="P10" s="35"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A11" s="43" t="s">
         <v>516</v>
       </c>
@@ -5541,7 +3842,7 @@
       </c>
       <c r="P11" s="50"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A12" s="51" t="s">
         <v>516</v>
       </c>
@@ -5587,7 +3888,7 @@
       </c>
       <c r="P12" s="35"/>
     </row>
-    <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>516</v>
       </c>
@@ -5633,7 +3934,7 @@
       </c>
       <c r="P13" s="35"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A14" s="43" t="s">
         <v>532</v>
       </c>
@@ -5675,7 +3976,7 @@
       </c>
       <c r="P14" s="50"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A15" s="51" t="s">
         <v>532</v>
       </c>
@@ -5759,27 +4060,27 @@
       <selection pane="bottomLeft" activeCell="H14" sqref="H14:H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.9296875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="31.08984375" customWidth="1"/>
-    <col min="2" max="2" width="22.36328125" customWidth="1"/>
-    <col min="3" max="3" width="44.453125" customWidth="1"/>
-    <col min="4" max="4" width="16.453125" customWidth="1"/>
-    <col min="5" max="5" width="14.7265625" customWidth="1"/>
-    <col min="6" max="6" width="16.08984375" customWidth="1"/>
+    <col min="1" max="1" width="31.06640625" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" customWidth="1"/>
+    <col min="3" max="3" width="44.46484375" customWidth="1"/>
+    <col min="4" max="4" width="16.46484375" customWidth="1"/>
+    <col min="5" max="5" width="14.73046875" customWidth="1"/>
+    <col min="6" max="6" width="16.06640625" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="17.453125" customWidth="1"/>
-    <col min="9" max="9" width="25.08984375" customWidth="1"/>
-    <col min="10" max="10" width="13.36328125" customWidth="1"/>
-    <col min="11" max="11" width="35.81640625" customWidth="1"/>
-    <col min="12" max="12" width="18.08984375" customWidth="1"/>
-    <col min="13" max="13" width="19.1796875" customWidth="1"/>
-    <col min="14" max="14" width="18.7265625" customWidth="1"/>
-    <col min="15" max="15" width="15.08984375" customWidth="1"/>
-    <col min="16" max="16" width="20.26953125" customWidth="1"/>
+    <col min="8" max="8" width="17.46484375" customWidth="1"/>
+    <col min="9" max="9" width="25.06640625" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" customWidth="1"/>
+    <col min="11" max="11" width="35.796875" customWidth="1"/>
+    <col min="12" max="12" width="18.06640625" customWidth="1"/>
+    <col min="13" max="13" width="19.19921875" customWidth="1"/>
+    <col min="14" max="14" width="18.73046875" customWidth="1"/>
+    <col min="15" max="15" width="15.06640625" customWidth="1"/>
+    <col min="16" max="16" width="20.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="87.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" ht="87.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="36" t="s">
         <v>257</v>
       </c>
@@ -5832,7 +4133,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A2" s="43" t="s">
         <v>258</v>
       </c>
@@ -5873,7 +4174,7 @@
       </c>
       <c r="P2" s="50"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A3" s="51" t="s">
         <v>258</v>
       </c>
@@ -5914,7 +4215,7 @@
       </c>
       <c r="P3" s="35"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A4" s="51" t="s">
         <v>258</v>
       </c>
@@ -5956,7 +4257,7 @@
       </c>
       <c r="P4" s="35"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A5" s="51" t="s">
         <v>258</v>
       </c>
@@ -5998,7 +4299,7 @@
       </c>
       <c r="P5" s="35"/>
     </row>
-    <row r="6" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="52" t="s">
         <v>258</v>
       </c>
@@ -6040,7 +4341,7 @@
       </c>
       <c r="P6" s="59"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>259</v>
       </c>
@@ -6082,7 +4383,7 @@
       </c>
       <c r="P7" s="35"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>259</v>
       </c>
@@ -6124,7 +4425,7 @@
       </c>
       <c r="P8" s="35"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>259</v>
       </c>
@@ -6166,7 +4467,7 @@
       </c>
       <c r="P9" s="35"/>
     </row>
-    <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>259</v>
       </c>
@@ -6208,7 +4509,7 @@
       </c>
       <c r="P10" s="35"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A11" s="43" t="s">
         <v>260</v>
       </c>
@@ -6254,7 +4555,7 @@
       </c>
       <c r="P11" s="50"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A12" s="51" t="s">
         <v>260</v>
       </c>
@@ -6300,7 +4601,7 @@
       </c>
       <c r="P12" s="35"/>
     </row>
-    <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>260</v>
       </c>
@@ -6346,7 +4647,7 @@
       </c>
       <c r="P13" s="35"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A14" s="43" t="s">
         <v>266</v>
       </c>
@@ -6388,7 +4689,7 @@
       </c>
       <c r="P14" s="50"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A15" s="51" t="s">
         <v>266</v>
       </c>
@@ -6430,7 +4731,7 @@
       </c>
       <c r="P15" s="35"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A16" s="51" t="s">
         <v>266</v>
       </c>
@@ -6472,7 +4773,7 @@
       </c>
       <c r="P16" s="35"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A17" s="51" t="s">
         <v>266</v>
       </c>
@@ -6514,7 +4815,7 @@
       </c>
       <c r="P17" s="35"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A18" s="51" t="s">
         <v>266</v>
       </c>
@@ -6556,7 +4857,7 @@
       </c>
       <c r="P18" s="35"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A19" s="51" t="s">
         <v>266</v>
       </c>
@@ -6598,7 +4899,7 @@
       </c>
       <c r="P19" s="35"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A20" s="51" t="s">
         <v>266</v>
       </c>
@@ -6640,7 +4941,7 @@
       </c>
       <c r="P20" s="35"/>
     </row>
-    <row r="21" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="52" t="s">
         <v>266</v>
       </c>
@@ -6682,7 +4983,7 @@
       </c>
       <c r="P21" s="59"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A22" s="43" t="s">
         <v>262</v>
       </c>
@@ -6724,7 +5025,7 @@
       </c>
       <c r="P22" s="50"/>
     </row>
-    <row r="23" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="52" t="s">
         <v>262</v>
       </c>
@@ -6806,15 +5107,15 @@
       <selection activeCell="C16" sqref="C16:G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.9296875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="19.7265625" customWidth="1"/>
-    <col min="2" max="2" width="35.81640625" customWidth="1"/>
+    <col min="1" max="1" width="19.73046875" customWidth="1"/>
+    <col min="2" max="2" width="35.796875" customWidth="1"/>
     <col min="3" max="12" width="6" customWidth="1"/>
     <col min="13" max="23" width="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A1" s="61" t="s">
         <v>35</v>
       </c>
@@ -6885,7 +5186,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>50</v>
       </c>
@@ -6957,7 +5258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>53</v>
       </c>
@@ -7028,7 +5329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>243</v>
       </c>
@@ -7036,7 +5337,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>244</v>
       </c>
@@ -7044,7 +5345,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>245</v>
       </c>
@@ -7052,7 +5353,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>249</v>
       </c>
@@ -7060,7 +5361,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>250</v>
       </c>
@@ -7068,7 +5369,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>248</v>
       </c>
@@ -7076,7 +5377,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>246</v>
       </c>
@@ -7084,7 +5385,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>247</v>
       </c>
@@ -7092,7 +5393,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>263</v>
       </c>
@@ -7100,7 +5401,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>276</v>
       </c>
@@ -7108,7 +5409,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>251</v>
       </c>
@@ -7116,7 +5417,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>252</v>
       </c>
@@ -7124,7 +5425,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>269</v>
       </c>
@@ -7147,7 +5448,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>270</v>
       </c>
@@ -7155,7 +5456,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>271</v>
       </c>
@@ -7163,7 +5464,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>273</v>
       </c>
@@ -7171,7 +5472,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>274</v>
       </c>
@@ -7179,7 +5480,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>272</v>
       </c>
@@ -7212,15 +5513,15 @@
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.9296875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="19.7265625" customWidth="1"/>
-    <col min="2" max="2" width="35.81640625" customWidth="1"/>
+    <col min="1" max="1" width="19.73046875" customWidth="1"/>
+    <col min="2" max="2" width="35.796875" customWidth="1"/>
     <col min="3" max="12" width="6" customWidth="1"/>
     <col min="13" max="23" width="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A1" s="61" t="s">
         <v>35</v>
       </c>
@@ -7291,7 +5592,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>50</v>
       </c>
@@ -7299,7 +5600,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>53</v>
       </c>
@@ -7310,7 +5611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>243</v>
       </c>
@@ -7318,7 +5619,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>244</v>
       </c>
@@ -7326,7 +5627,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>245</v>
       </c>
@@ -7334,7 +5635,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>249</v>
       </c>
@@ -7342,7 +5643,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>250</v>
       </c>
@@ -7350,7 +5651,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>248</v>
       </c>
@@ -7358,7 +5659,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>246</v>
       </c>
@@ -7366,7 +5667,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>247</v>
       </c>
@@ -7374,7 +5675,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>263</v>
       </c>
@@ -7382,7 +5683,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>276</v>
       </c>
@@ -7390,7 +5691,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>251</v>
       </c>
@@ -7398,7 +5699,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>252</v>
       </c>
@@ -7406,7 +5707,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>269</v>
       </c>
@@ -7414,7 +5715,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>270</v>
       </c>
@@ -7422,7 +5723,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>271</v>
       </c>
@@ -7430,7 +5731,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>273</v>
       </c>
@@ -7438,7 +5739,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>274</v>
       </c>
@@ -7446,7 +5747,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>272</v>
       </c>
@@ -7480,16 +5781,16 @@
       <selection pane="bottomLeft" activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.9296875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="20.26953125" customWidth="1"/>
-    <col min="2" max="2" width="39.08984375" customWidth="1"/>
-    <col min="3" max="3" width="12.81640625" customWidth="1"/>
-    <col min="4" max="4" width="12.26953125" customWidth="1"/>
-    <col min="5" max="16" width="12.81640625" customWidth="1"/>
+    <col min="1" max="1" width="20.265625" customWidth="1"/>
+    <col min="2" max="2" width="39.06640625" customWidth="1"/>
+    <col min="3" max="3" width="12.796875" customWidth="1"/>
+    <col min="4" max="4" width="12.265625" customWidth="1"/>
+    <col min="5" max="16" width="12.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="63" t="s">
         <v>288</v>
       </c>
@@ -7553,7 +5854,7 @@
         <v>StartYear2035</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="64" t="s">
         <v>35</v>
       </c>
@@ -7603,7 +5904,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A3" s="32" t="s">
         <v>50</v>
       </c>
@@ -7658,7 +5959,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A4" s="32" t="s">
         <v>53</v>
       </c>
@@ -7713,7 +6014,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A5" s="32" t="s">
         <v>243</v>
       </c>
@@ -7768,7 +6069,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A6" s="32" t="s">
         <v>244</v>
       </c>
@@ -7823,7 +6124,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A7" s="32" t="s">
         <v>245</v>
       </c>
@@ -7878,7 +6179,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A8" s="32" t="s">
         <v>249</v>
       </c>
@@ -7933,7 +6234,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A9" s="32" t="s">
         <v>250</v>
       </c>
@@ -7988,7 +6289,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A10" s="32" t="s">
         <v>248</v>
       </c>
@@ -8043,7 +6344,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A11" s="32" t="s">
         <v>246</v>
       </c>
@@ -8098,7 +6399,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A12" s="32" t="s">
         <v>247</v>
       </c>
@@ -8153,7 +6454,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A13" s="32" t="s">
         <v>263</v>
       </c>
@@ -8208,7 +6509,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A14" s="32" t="s">
         <v>276</v>
       </c>
@@ -8263,7 +6564,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A15" s="32" t="s">
         <v>251</v>
       </c>
@@ -8318,7 +6619,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A16" s="32" t="s">
         <v>252</v>
       </c>
@@ -8373,7 +6674,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A17" s="2" t="s">
         <v>269</v>
       </c>
@@ -8428,7 +6729,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A18" s="2" t="s">
         <v>270</v>
       </c>
@@ -8483,7 +6784,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A19" s="2" t="s">
         <v>271</v>
       </c>
@@ -8538,7 +6839,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A20" s="2" t="s">
         <v>273</v>
       </c>
@@ -8593,7 +6894,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A21" s="2" t="s">
         <v>274</v>
       </c>
@@ -8648,7 +6949,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A22" s="2" t="s">
         <v>272</v>
       </c>
@@ -8703,7 +7004,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A23" s="2" t="s">
         <v>242</v>
       </c>
@@ -8758,7 +7059,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A24" s="2" t="s">
         <v>131</v>
       </c>
@@ -8853,17 +7154,17 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.9296875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="15.90625" customWidth="1"/>
-    <col min="2" max="2" width="6.26953125" customWidth="1"/>
-    <col min="3" max="3" width="22.90625" customWidth="1"/>
-    <col min="4" max="4" width="21.90625" customWidth="1"/>
-    <col min="5" max="5" width="8.6328125" customWidth="1"/>
-    <col min="6" max="6" width="7.7265625" customWidth="1"/>
+    <col min="1" max="1" width="15.9296875" customWidth="1"/>
+    <col min="2" max="2" width="6.265625" customWidth="1"/>
+    <col min="3" max="3" width="22.9296875" customWidth="1"/>
+    <col min="4" max="4" width="21.9296875" customWidth="1"/>
+    <col min="5" max="5" width="8.59765625" customWidth="1"/>
+    <col min="6" max="6" width="7.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="68" t="s">
         <v>278</v>
       </c>
@@ -8883,7 +7184,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>277</v>
       </c>
@@ -8903,7 +7204,7 @@
         <v>2034</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>277</v>
       </c>
@@ -8921,7 +7222,7 @@
       </c>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>277</v>
       </c>
@@ -8939,7 +7240,7 @@
       </c>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>237</v>
       </c>
@@ -8959,7 +7260,7 @@
         <v>2034</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>237</v>
       </c>
@@ -8977,7 +7278,7 @@
       </c>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>237</v>
       </c>
@@ -8995,7 +7296,7 @@
       </c>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>275</v>
       </c>
@@ -9015,7 +7316,7 @@
         <v>2034</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>275</v>
       </c>
@@ -9033,7 +7334,7 @@
       </c>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>275</v>
       </c>
@@ -9051,7 +7352,7 @@
       </c>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
         <v>320</v>
       </c>
@@ -9071,7 +7372,7 @@
         <v>2034</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
         <v>320</v>
       </c>
@@ -9089,7 +7390,7 @@
       </c>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
         <v>320</v>
       </c>
@@ -9147,14 +7448,14 @@
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.9296875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="16.1796875" customWidth="1"/>
-    <col min="2" max="2" width="77.81640625" customWidth="1"/>
-    <col min="3" max="3" width="10.1796875" customWidth="1"/>
+    <col min="1" max="1" width="16.19921875" customWidth="1"/>
+    <col min="2" max="2" width="77.796875" customWidth="1"/>
+    <col min="3" max="3" width="10.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="69" t="s">
         <v>15</v>
       </c>
@@ -9165,7 +7466,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -9176,7 +7477,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -9187,7 +7488,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -9198,7 +7499,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -9209,7 +7510,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -9220,7 +7521,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -9231,7 +7532,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -9242,7 +7543,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -9253,7 +7554,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -9278,17 +7579,17 @@
       <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.9296875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="4" max="4" width="15.81640625" customWidth="1"/>
+    <col min="4" max="4" width="15.796875" customWidth="1"/>
     <col min="6" max="6" width="23" customWidth="1"/>
-    <col min="7" max="8" width="8.26953125" customWidth="1"/>
-    <col min="9" max="9" width="12.54296875" customWidth="1"/>
-    <col min="10" max="10" width="12.7265625" customWidth="1"/>
-    <col min="12" max="12" width="10.1796875" customWidth="1"/>
+    <col min="7" max="8" width="8.265625" customWidth="1"/>
+    <col min="9" max="9" width="12.53125" customWidth="1"/>
+    <col min="10" max="10" width="12.73046875" customWidth="1"/>
+    <col min="12" max="12" width="10.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B1" s="72" t="s">
         <v>127</v>
       </c>
@@ -9314,7 +7615,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B2" s="3" t="s">
         <v>152</v>
       </c>
@@ -9340,7 +7641,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B3" s="3" t="s">
         <v>153</v>
       </c>
@@ -9366,7 +7667,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B4" s="3" t="s">
         <v>154</v>
       </c>
@@ -9392,7 +7693,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B5" s="3" t="s">
         <v>67</v>
       </c>
@@ -9418,7 +7719,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B6" s="3" t="s">
         <v>64</v>
       </c>
@@ -9441,7 +7742,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B7" s="3"/>
       <c r="D7" s="3" t="s">
         <v>64</v>
@@ -9462,7 +7763,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B8" s="3"/>
       <c r="D8" s="3" t="s">
         <v>65</v>
@@ -9483,7 +7784,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B9" s="3"/>
       <c r="D9" s="3" t="s">
         <v>4</v>
@@ -9504,7 +7805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.45">
       <c r="D10" s="3" t="s">
         <v>70</v>
       </c>
@@ -9524,7 +7825,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.45">
       <c r="D11" s="3" t="s">
         <v>71</v>
       </c>
@@ -9544,7 +7845,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.45">
       <c r="D12" s="3" t="s">
         <v>73</v>
       </c>
@@ -9564,7 +7865,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.45">
       <c r="D13" s="3" t="s">
         <v>86</v>
       </c>
@@ -9584,7 +7885,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.45">
       <c r="D14" s="3" t="s">
         <v>75</v>
       </c>
@@ -9604,7 +7905,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.45">
       <c r="D15" s="3" t="s">
         <v>1</v>
       </c>
@@ -9624,7 +7925,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.45">
       <c r="F16" s="3" t="s">
         <v>208</v>
       </c>
@@ -9641,7 +7942,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="6:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F17" s="3" t="s">
         <v>209</v>
       </c>
@@ -9658,7 +7959,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="6:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F18" s="3" t="s">
         <v>210</v>
       </c>
@@ -9675,7 +7976,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="6:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F19" s="3" t="s">
         <v>214</v>
       </c>
@@ -9692,7 +7993,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="6:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F20" s="3" t="s">
         <v>215</v>
       </c>
@@ -9709,7 +8010,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="6:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F21" s="3" t="s">
         <v>142</v>
       </c>
@@ -9726,7 +8027,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="6:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F22" s="3" t="s">
         <v>76</v>
       </c>
@@ -9743,7 +8044,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="6:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F23" s="3" t="s">
         <v>74</v>
       </c>
@@ -9760,7 +8061,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="6:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F24" s="3" t="s">
         <v>72</v>
       </c>
@@ -9777,7 +8078,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="6:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F25" s="3" t="s">
         <v>66</v>
       </c>
@@ -9791,7 +8092,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="6:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F26" s="3" t="s">
         <v>155</v>
       </c>
@@ -9805,7 +8106,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="6:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F27" s="3" t="s">
         <v>216</v>
       </c>
@@ -9819,7 +8120,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="6:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F28" s="3" t="s">
         <v>211</v>
       </c>
@@ -9833,7 +8134,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="6:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F29" s="3" t="s">
         <v>207</v>
       </c>
@@ -9847,7 +8148,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="30" spans="6:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F30" s="3" t="s">
         <v>147</v>
       </c>
@@ -9861,7 +8162,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="6:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F31" s="3" t="s">
         <v>77</v>
       </c>
@@ -9878,7 +8179,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="32" spans="6:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F32" s="3" t="s">
         <v>145</v>
       </c>
@@ -9895,7 +8196,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="33" spans="6:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F33" s="3" t="s">
         <v>217</v>
       </c>
@@ -9912,7 +8213,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="6:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F34" s="3" t="s">
         <v>218</v>
       </c>
@@ -9929,7 +8230,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="6:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F35" s="3" t="s">
         <v>219</v>
       </c>
@@ -9946,7 +8247,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="36" spans="6:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F36" s="3" t="s">
         <v>220</v>
       </c>
@@ -9963,7 +8264,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="6:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F37" s="3" t="s">
         <v>221</v>
       </c>
@@ -9980,7 +8281,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="38" spans="6:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F38" s="3" t="s">
         <v>222</v>
       </c>
@@ -9997,7 +8298,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="39" spans="6:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F39" s="3" t="s">
         <v>223</v>
       </c>
@@ -10014,7 +8315,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="40" spans="6:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F40" s="3" t="s">
         <v>224</v>
       </c>
@@ -10031,7 +8332,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="6:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F41" s="3" t="s">
         <v>225</v>
       </c>
@@ -10048,7 +8349,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="42" spans="6:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F42" s="3" t="s">
         <v>226</v>
       </c>
@@ -10065,7 +8366,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="43" spans="6:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F43" s="3" t="s">
         <v>146</v>
       </c>
@@ -10082,7 +8383,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="44" spans="6:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F44" s="3" t="s">
         <v>69</v>
       </c>
@@ -10093,7 +8394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="6:10" x14ac:dyDescent="0.35">
+    <row r="45" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F45" s="3" t="s">
         <v>64</v>
       </c>
@@ -10121,22 +8422,22 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.9296875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="8.1796875" customWidth="1"/>
-    <col min="3" max="4" width="8.26953125" customWidth="1"/>
-    <col min="5" max="5" width="8.1796875" customWidth="1"/>
-    <col min="6" max="6" width="8.90625" customWidth="1"/>
-    <col min="7" max="7" width="9.6328125" customWidth="1"/>
-    <col min="8" max="9" width="9.81640625" customWidth="1"/>
-    <col min="10" max="10" width="19.453125" customWidth="1"/>
-    <col min="11" max="11" width="10.26953125" customWidth="1"/>
-    <col min="12" max="12" width="15.90625" customWidth="1"/>
-    <col min="13" max="13" width="20.54296875" customWidth="1"/>
+    <col min="2" max="2" width="8.19921875" customWidth="1"/>
+    <col min="3" max="4" width="8.265625" customWidth="1"/>
+    <col min="5" max="5" width="8.19921875" customWidth="1"/>
+    <col min="6" max="6" width="8.9296875" customWidth="1"/>
+    <col min="7" max="7" width="9.59765625" customWidth="1"/>
+    <col min="8" max="9" width="9.796875" customWidth="1"/>
+    <col min="10" max="10" width="19.46484375" customWidth="1"/>
+    <col min="11" max="11" width="10.265625" customWidth="1"/>
+    <col min="12" max="12" width="15.9296875" customWidth="1"/>
+    <col min="13" max="13" width="20.53125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="112" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="112.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
         <v>321</v>
       </c>
@@ -10180,7 +8481,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>335</v>
       </c>
@@ -10224,7 +8525,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -10234,7 +8535,7 @@
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -10244,7 +8545,7 @@
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -10255,7 +8556,7 @@
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -10265,7 +8566,7 @@
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -10292,8 +8593,7 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
@@ -10320,18 +8620,18 @@
       <selection activeCell="E2" sqref="E2:H31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.9296875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="30.1796875" customWidth="1"/>
-    <col min="2" max="2" width="20.81640625" customWidth="1"/>
-    <col min="3" max="3" width="9.1796875" customWidth="1"/>
-    <col min="4" max="4" width="4.1796875" customWidth="1"/>
-    <col min="5" max="5" width="9.54296875" customWidth="1"/>
-    <col min="6" max="6" width="8.7265625" customWidth="1"/>
-    <col min="8" max="8" width="11.54296875" customWidth="1"/>
+    <col min="1" max="1" width="30.19921875" customWidth="1"/>
+    <col min="2" max="2" width="20.796875" customWidth="1"/>
+    <col min="3" max="3" width="9.19921875" customWidth="1"/>
+    <col min="4" max="4" width="4.19921875" customWidth="1"/>
+    <col min="5" max="5" width="9.53125" customWidth="1"/>
+    <col min="6" max="6" width="8.73046875" customWidth="1"/>
+    <col min="8" max="8" width="11.53125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="6" t="s">
         <v>16</v>
       </c>
@@ -10357,7 +8657,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>160</v>
       </c>
@@ -10383,7 +8683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>162</v>
       </c>
@@ -10409,7 +8709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>98</v>
       </c>
@@ -10435,7 +8735,7 @@
         <v>0.95578359599616292</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>97</v>
       </c>
@@ -10461,7 +8761,7 @@
         <v>0.99406418087663018</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>96</v>
       </c>
@@ -10487,7 +8787,7 @@
         <v>1.0068149104070221</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>95</v>
       </c>
@@ -10513,7 +8813,7 @@
         <v>1.007895232440303</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>94</v>
       </c>
@@ -10539,7 +8839,7 @@
         <v>1.001749809379741</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>93</v>
       </c>
@@ -10565,7 +8865,7 @@
         <v>1.0064365105040243</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>92</v>
       </c>
@@ -10591,7 +8891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>170</v>
       </c>
@@ -10617,7 +8917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>175</v>
       </c>
@@ -10643,7 +8943,7 @@
         <v>0.95083919302602238</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>176</v>
       </c>
@@ -10669,7 +8969,7 @@
         <v>0.93664649795093002</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>177</v>
       </c>
@@ -10695,7 +8995,7 @@
         <v>0.95161290322580649</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>178</v>
       </c>
@@ -10721,7 +9021,7 @@
         <v>0.96150047483380818</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>179</v>
       </c>
@@ -10747,7 +9047,7 @@
         <v>0.96508794519599173</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>180</v>
       </c>
@@ -10773,7 +9073,7 @@
         <v>0.9885057471264368</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>121</v>
       </c>
@@ -10799,7 +9099,7 @@
         <v>0.98007627674588871</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>122</v>
       </c>
@@ -10825,7 +9125,7 @@
         <v>0.98007627674588871</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>119</v>
       </c>
@@ -10851,7 +9151,7 @@
         <v>0.98007627674588871</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>120</v>
       </c>
@@ -10877,7 +9177,7 @@
         <v>0.98007627674588871</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>181</v>
       </c>
@@ -10903,7 +9203,7 @@
         <v>0.95083919302602238</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>182</v>
       </c>
@@ -10929,7 +9229,7 @@
         <v>0.93664649795093002</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>183</v>
       </c>
@@ -10955,7 +9255,7 @@
         <v>0.95161290322580649</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>184</v>
       </c>
@@ -10981,7 +9281,7 @@
         <v>0.96150047483380818</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>185</v>
       </c>
@@ -11007,7 +9307,7 @@
         <v>0.96508794519599173</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>186</v>
       </c>
@@ -11033,7 +9333,7 @@
         <v>0.9885057471264368</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>123</v>
       </c>
@@ -11059,7 +9359,7 @@
         <v>0.98481071022469158</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>124</v>
       </c>
@@ -11085,7 +9385,7 @@
         <v>0.98481071022469158</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>117</v>
       </c>
@@ -11111,7 +9411,7 @@
         <v>0.98481071022469158</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>118</v>
       </c>
@@ -11182,13 +9482,13 @@
       <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.9296875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.90625" customWidth="1"/>
-    <col min="2" max="3" width="5.6328125" customWidth="1"/>
+    <col min="1" max="1" width="18.9296875" customWidth="1"/>
+    <col min="2" max="3" width="5.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="29.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="10" t="s">
         <v>293</v>
       </c>
@@ -11199,7 +9499,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="13" t="s">
         <v>89</v>
       </c>
@@ -11210,7 +9510,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="13" t="s">
         <v>161</v>
       </c>
@@ -11221,7 +9521,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="18" t="s">
         <v>296</v>
       </c>
@@ -11247,16 +9547,16 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.9296875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.1796875" customWidth="1"/>
-    <col min="2" max="3" width="7.81640625" customWidth="1"/>
-    <col min="4" max="4" width="8.26953125" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" customWidth="1"/>
-    <col min="7" max="7" width="11.81640625" customWidth="1"/>
+    <col min="1" max="1" width="4.19921875" customWidth="1"/>
+    <col min="2" max="3" width="7.796875" customWidth="1"/>
+    <col min="4" max="4" width="8.265625" customWidth="1"/>
+    <col min="6" max="6" width="13.53125" customWidth="1"/>
+    <col min="7" max="7" width="11.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>341</v>
       </c>
@@ -11270,7 +9570,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="20" t="s">
         <v>345</v>
       </c>
@@ -11284,7 +9584,7 @@
         <v>8358</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="20" t="s">
         <v>346</v>
       </c>
@@ -11299,7 +9599,7 @@
       </c>
       <c r="F3" s="19"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="20" t="s">
         <v>347</v>
       </c>
@@ -11314,7 +9614,7 @@
       </c>
       <c r="F4" s="19"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="20" t="s">
         <v>348</v>
       </c>
@@ -11329,7 +9629,7 @@
       </c>
       <c r="F5" s="19"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="20" t="s">
         <v>349</v>
       </c>
@@ -11343,7 +9643,7 @@
         <v>7217</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="20" t="s">
         <v>350</v>
       </c>
@@ -11357,7 +9657,7 @@
         <v>6999</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="20" t="s">
         <v>351</v>
       </c>
@@ -11371,7 +9671,7 @@
         <v>6788</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="20" t="s">
         <v>352</v>
       </c>
@@ -11385,7 +9685,7 @@
         <v>6571</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="20" t="s">
         <v>353</v>
       </c>
@@ -11399,7 +9699,7 @@
         <v>6343</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" s="20" t="s">
         <v>354</v>
       </c>
@@ -11413,7 +9713,7 @@
         <v>6122</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" s="20" t="s">
         <v>355</v>
       </c>
@@ -11427,7 +9727,7 @@
         <v>5933</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" s="20" t="s">
         <v>356</v>
       </c>
@@ -11442,7 +9742,7 @@
       </c>
       <c r="G13" s="21"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" s="20" t="s">
         <v>357</v>
       </c>
@@ -11456,7 +9756,7 @@
         <v>5749</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" s="20" t="s">
         <v>358</v>
       </c>
@@ -11470,7 +9770,7 @@
         <v>5791</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" s="20" t="s">
         <v>359</v>
       </c>
@@ -11484,7 +9784,7 @@
         <v>5902</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" s="20" t="s">
         <v>360</v>
       </c>
@@ -11498,7 +9798,7 @@
         <v>6042</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" s="20" t="s">
         <v>361</v>
       </c>
@@ -11512,7 +9812,7 @@
         <v>6173</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" s="20" t="s">
         <v>362</v>
       </c>
@@ -11526,7 +9826,7 @@
         <v>6257</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" s="20" t="s">
         <v>363</v>
       </c>
@@ -11540,7 +9840,7 @@
         <v>6266</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" s="20" t="s">
         <v>364</v>
       </c>
@@ -11554,7 +9854,7 @@
         <v>6217</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" s="20" t="s">
         <v>365</v>
       </c>
@@ -11568,7 +9868,7 @@
         <v>6138</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" s="20" t="s">
         <v>366</v>
       </c>
@@ -11582,7 +9882,7 @@
         <v>6055</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" s="20" t="s">
         <v>367</v>
       </c>
@@ -11596,7 +9896,7 @@
         <v>5998</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25" s="20" t="s">
         <v>368</v>
       </c>
@@ -11610,7 +9910,7 @@
         <v>5982</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26" s="20" t="s">
         <v>369</v>
       </c>
@@ -11624,7 +9924,7 @@
         <v>5986</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" s="20" t="s">
         <v>370</v>
       </c>
@@ -11638,7 +9938,7 @@
         <v>5978</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" s="20" t="s">
         <v>371</v>
       </c>
@@ -11652,7 +9952,7 @@
         <v>5930</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" s="20" t="s">
         <v>372</v>
       </c>
@@ -11666,7 +9966,7 @@
         <v>5807</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30" s="20" t="s">
         <v>373</v>
       </c>
@@ -11680,7 +9980,7 @@
         <v>5592</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A31" s="20" t="s">
         <v>374</v>
       </c>
@@ -11694,7 +9994,7 @@
         <v>5308</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A32" s="20" t="s">
         <v>375</v>
       </c>
@@ -11708,7 +10008,7 @@
         <v>4988</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A33" s="20" t="s">
         <v>376</v>
       </c>
@@ -11722,7 +10022,7 @@
         <v>4668</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A34" s="20" t="s">
         <v>377</v>
       </c>
@@ -11736,7 +10036,7 @@
         <v>4382</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A35" s="20" t="s">
         <v>378</v>
       </c>
@@ -11750,7 +10050,7 @@
         <v>4156</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A36" s="20" t="s">
         <v>379</v>
       </c>
@@ -11764,7 +10064,7 @@
         <v>3983</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A37" s="20" t="s">
         <v>380</v>
       </c>
@@ -11778,7 +10078,7 @@
         <v>3844</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A38" s="20" t="s">
         <v>381</v>
       </c>
@@ -11792,7 +10092,7 @@
         <v>3722</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A39" s="20" t="s">
         <v>382</v>
       </c>
@@ -11806,7 +10106,7 @@
         <v>3601</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A40" s="20" t="s">
         <v>383</v>
       </c>
@@ -11820,7 +10120,7 @@
         <v>3465</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A41" s="20" t="s">
         <v>384</v>
       </c>
@@ -11834,7 +10134,7 @@
         <v>3315</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A42" s="20" t="s">
         <v>385</v>
       </c>
@@ -11848,7 +10148,7 @@
         <v>3153</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A43" s="20" t="s">
         <v>386</v>
       </c>
@@ -11862,7 +10162,7 @@
         <v>2980</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A44" s="20" t="s">
         <v>387</v>
       </c>
@@ -11876,7 +10176,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A45" s="20" t="s">
         <v>388</v>
       </c>
@@ -11890,7 +10190,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A46" s="20" t="s">
         <v>389</v>
       </c>
@@ -11904,7 +10204,7 @@
         <v>2437</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A47" s="20" t="s">
         <v>390</v>
       </c>
@@ -11918,7 +10218,7 @@
         <v>2269</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A48" s="20" t="s">
         <v>391</v>
       </c>
@@ -11932,7 +10232,7 @@
         <v>2124</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A49" s="20" t="s">
         <v>392</v>
       </c>
@@ -11946,7 +10246,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A50" s="20" t="s">
         <v>393</v>
       </c>
@@ -11960,7 +10260,7 @@
         <v>1929</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A51" s="20" t="s">
         <v>394</v>
       </c>
@@ -11974,7 +10274,7 @@
         <v>1872</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A52" s="20" t="s">
         <v>395</v>
       </c>
@@ -11988,7 +10288,7 @@
         <v>1824</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A53" s="20" t="s">
         <v>396</v>
       </c>
@@ -12002,7 +10302,7 @@
         <v>1768</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A54" s="20" t="s">
         <v>397</v>
       </c>
@@ -12016,7 +10316,7 @@
         <v>1689</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A55" s="20" t="s">
         <v>398</v>
       </c>
@@ -12030,7 +10330,7 @@
         <v>1577</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A56" s="20" t="s">
         <v>399</v>
       </c>
@@ -12044,7 +10344,7 @@
         <v>1445</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A57" s="20" t="s">
         <v>400</v>
       </c>
@@ -12058,7 +10358,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A58" s="20" t="s">
         <v>401</v>
       </c>
@@ -12072,7 +10372,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A59" s="20" t="s">
         <v>402</v>
       </c>
@@ -12086,7 +10386,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A60" s="20" t="s">
         <v>403</v>
       </c>
@@ -12100,7 +10400,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A61" s="20" t="s">
         <v>404</v>
       </c>
@@ -12114,7 +10414,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A62" s="20" t="s">
         <v>405</v>
       </c>
@@ -12128,7 +10428,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A63" s="20" t="s">
         <v>406</v>
       </c>
@@ -12142,7 +10442,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A64" s="20" t="s">
         <v>407</v>
       </c>
@@ -12156,7 +10456,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A65" s="20" t="s">
         <v>408</v>
       </c>
@@ -12170,7 +10470,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A66" s="20" t="s">
         <v>409</v>
       </c>
@@ -12184,7 +10484,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A67" s="20" t="s">
         <v>410</v>
       </c>
@@ -12198,7 +10498,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A68" s="20" t="s">
         <v>411</v>
       </c>
@@ -12212,7 +10512,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A69" s="20" t="s">
         <v>412</v>
       </c>
@@ -12226,7 +10526,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A70" s="20" t="s">
         <v>413</v>
       </c>
@@ -12240,7 +10540,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A71" s="20" t="s">
         <v>414</v>
       </c>
@@ -12254,7 +10554,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A72" s="20" t="s">
         <v>415</v>
       </c>
@@ -12268,7 +10568,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A73" s="20" t="s">
         <v>416</v>
       </c>
@@ -12282,7 +10582,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A74" s="20" t="s">
         <v>417</v>
       </c>
@@ -12296,7 +10596,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A75" s="20" t="s">
         <v>418</v>
       </c>
@@ -12310,7 +10610,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A76" s="20" t="s">
         <v>419</v>
       </c>
@@ -12324,7 +10624,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A77" s="20" t="s">
         <v>420</v>
       </c>
@@ -12338,7 +10638,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A78" s="20" t="s">
         <v>421</v>
       </c>
@@ -12352,7 +10652,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A79" s="20" t="s">
         <v>422</v>
       </c>
@@ -12366,7 +10666,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A80" s="20" t="s">
         <v>423</v>
       </c>
@@ -12380,7 +10680,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A81" s="20" t="s">
         <v>424</v>
       </c>
@@ -12394,7 +10694,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A82" s="20" t="s">
         <v>425</v>
       </c>
@@ -12408,7 +10708,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A83" s="20" t="s">
         <v>426</v>
       </c>
@@ -12422,7 +10722,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A84" s="20" t="s">
         <v>427</v>
       </c>
@@ -12436,7 +10736,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A85" s="20" t="s">
         <v>428</v>
       </c>
@@ -12450,7 +10750,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A86" s="20" t="s">
         <v>429</v>
       </c>
@@ -12464,7 +10764,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A87" s="20" t="s">
         <v>430</v>
       </c>
@@ -12478,7 +10778,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A88" s="20" t="s">
         <v>431</v>
       </c>
@@ -12492,7 +10792,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A89" s="20" t="s">
         <v>432</v>
       </c>
@@ -12506,7 +10806,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A90" s="20" t="s">
         <v>433</v>
       </c>
@@ -12520,7 +10820,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A91" s="20" t="s">
         <v>434</v>
       </c>
@@ -12534,7 +10834,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A92" s="20" t="s">
         <v>435</v>
       </c>
@@ -12548,7 +10848,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A93" s="20" t="s">
         <v>436</v>
       </c>
@@ -12562,7 +10862,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A94" s="20" t="s">
         <v>437</v>
       </c>
@@ -12576,7 +10876,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A95" s="20" t="s">
         <v>438</v>
       </c>
@@ -12590,7 +10890,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A96" s="20" t="s">
         <v>439</v>
       </c>
@@ -12604,7 +10904,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A97" s="20" t="s">
         <v>440</v>
       </c>
@@ -12618,7 +10918,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A98" s="20" t="s">
         <v>441</v>
       </c>
@@ -12632,7 +10932,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A99" s="20" t="s">
         <v>442</v>
       </c>
@@ -12646,7 +10946,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A100" s="20" t="s">
         <v>443</v>
       </c>
@@ -12660,7 +10960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A101" s="20" t="s">
         <v>444</v>
       </c>
@@ -12674,7 +10974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A102" s="20" t="s">
         <v>445</v>
       </c>
@@ -12711,14 +11011,14 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.9296875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="4" width="9.26953125" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" customWidth="1"/>
-    <col min="7" max="7" width="11.81640625" customWidth="1"/>
+    <col min="1" max="4" width="9.265625" customWidth="1"/>
+    <col min="6" max="6" width="13.53125" customWidth="1"/>
+    <col min="7" max="7" width="11.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="6" t="s">
         <v>30</v>
       </c>
@@ -12732,7 +11032,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="24" t="s">
         <v>34</v>
       </c>
@@ -12746,7 +11046,7 @@
         <v>48809</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="24">
         <v>1</v>
       </c>
@@ -12761,7 +11061,7 @@
       </c>
       <c r="F3" s="19"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="24">
         <v>2</v>
       </c>
@@ -12776,7 +11076,7 @@
       </c>
       <c r="F4" s="19"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="24">
         <v>3</v>
       </c>
@@ -12791,7 +11091,7 @@
       </c>
       <c r="F5" s="19"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="24">
         <v>4</v>
       </c>
@@ -12805,7 +11105,7 @@
         <v>47623</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="24">
         <v>5</v>
       </c>
@@ -12819,7 +11119,7 @@
         <v>50657</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="24">
         <v>6</v>
       </c>
@@ -12833,7 +11133,7 @@
         <v>54150</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="24">
         <v>7</v>
       </c>
@@ -12847,7 +11147,7 @@
         <v>57562</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="24">
         <v>8</v>
       </c>
@@ -12861,7 +11161,7 @@
         <v>60434</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" s="24">
         <v>9</v>
       </c>
@@ -12875,7 +11175,7 @@
         <v>62648</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" s="24">
         <v>10</v>
       </c>
@@ -12889,7 +11189,7 @@
         <v>64171</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" s="24">
         <v>11</v>
       </c>
@@ -12904,7 +11204,7 @@
       </c>
       <c r="G13" s="21"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" s="24">
         <v>12</v>
       </c>
@@ -12918,7 +11218,7 @@
         <v>65009</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" s="24">
         <v>13</v>
       </c>
@@ -12932,7 +11232,7 @@
         <v>64277</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" s="24">
         <v>14</v>
       </c>
@@ -12946,7 +11246,7 @@
         <v>62842</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" s="24">
         <v>15</v>
       </c>
@@ -12960,7 +11260,7 @@
         <v>60798</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" s="24">
         <v>16</v>
       </c>
@@ -12974,7 +11274,7 @@
         <v>58233</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" s="24">
         <v>17</v>
       </c>
@@ -12988,7 +11288,7 @@
         <v>55238</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" s="24">
         <v>18</v>
       </c>
@@ -13002,7 +11302,7 @@
         <v>51920</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" s="24">
         <v>19</v>
       </c>
@@ -13016,7 +11316,7 @@
         <v>48445</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" s="24">
         <v>20</v>
       </c>
@@ -13030,7 +11330,7 @@
         <v>44996</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" s="24">
         <v>21</v>
       </c>
@@ -13044,7 +11344,7 @@
         <v>41753</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" s="24">
         <v>22</v>
       </c>
@@ -13058,7 +11358,7 @@
         <v>38902</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25" s="24">
         <v>23</v>
       </c>
@@ -13072,7 +11372,7 @@
         <v>36572</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26" s="24">
         <v>24</v>
       </c>
@@ -13086,7 +11386,7 @@
         <v>34692</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" s="24">
         <v>25</v>
       </c>
@@ -13100,7 +11400,7 @@
         <v>33142</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" s="24">
         <v>26</v>
       </c>
@@ -13114,7 +11414,7 @@
         <v>31801</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" s="24">
         <v>27</v>
       </c>
@@ -13128,7 +11428,7 @@
         <v>30547</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30" s="24">
         <v>28</v>
       </c>
@@ -13142,7 +11442,7 @@
         <v>29292</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A31" s="24">
         <v>29</v>
       </c>
@@ -13156,7 +11456,7 @@
         <v>28084</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A32" s="24">
         <v>30</v>
       </c>
@@ -13170,7 +11470,7 @@
         <v>27001</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A33" s="24">
         <v>31</v>
       </c>
@@ -13184,7 +11484,7 @@
         <v>26127</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A34" s="24">
         <v>32</v>
       </c>
@@ -13198,7 +11498,7 @@
         <v>25540</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A35" s="24">
         <v>33</v>
       </c>
@@ -13212,7 +11512,7 @@
         <v>25287</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A36" s="24">
         <v>34</v>
       </c>
@@ -13226,7 +11526,7 @@
         <v>25280</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A37" s="24">
         <v>35</v>
       </c>
@@ -13240,7 +11540,7 @@
         <v>25400</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A38" s="24">
         <v>36</v>
       </c>
@@ -13254,7 +11554,7 @@
         <v>25525</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A39" s="24">
         <v>37</v>
       </c>
@@ -13268,7 +11568,7 @@
         <v>25534</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A40" s="24">
         <v>38</v>
       </c>
@@ -13282,7 +11582,7 @@
         <v>25328</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A41" s="24">
         <v>39</v>
       </c>
@@ -13296,7 +11596,7 @@
         <v>24886</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A42" s="24">
         <v>40</v>
       </c>
@@ -13310,7 +11610,7 @@
         <v>24209</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A43" s="24">
         <v>41</v>
       </c>
@@ -13324,7 +11624,7 @@
         <v>23299</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A44" s="24">
         <v>42</v>
       </c>
@@ -13338,7 +11638,7 @@
         <v>22156</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A45" s="24">
         <v>43</v>
       </c>
@@ -13352,7 +11652,7 @@
         <v>20797</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A46" s="24">
         <v>44</v>
       </c>
@@ -13366,7 +11666,7 @@
         <v>19303</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A47" s="24">
         <v>45</v>
       </c>
@@ -13380,7 +11680,7 @@
         <v>17771</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A48" s="24">
         <v>46</v>
       </c>
@@ -13394,7 +11694,7 @@
         <v>16299</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A49" s="24">
         <v>47</v>
       </c>
@@ -13408,7 +11708,7 @@
         <v>14982</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A50" s="24">
         <v>48</v>
       </c>
@@ -13422,7 +11722,7 @@
         <v>13891</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A51" s="24">
         <v>49</v>
       </c>
@@ -13436,7 +11736,7 @@
         <v>12985</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A52" s="24">
         <v>50</v>
       </c>
@@ -13450,7 +11750,7 @@
         <v>12192</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A53" s="24">
         <v>51</v>
       </c>
@@ -13464,7 +11764,7 @@
         <v>11444</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A54" s="24">
         <v>52</v>
       </c>
@@ -13478,7 +11778,7 @@
         <v>10673</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A55" s="24">
         <v>53</v>
       </c>
@@ -13492,7 +11792,7 @@
         <v>9830</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A56" s="24">
         <v>54</v>
       </c>
@@ -13506,7 +11806,7 @@
         <v>8951</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A57" s="24">
         <v>55</v>
       </c>
@@ -13520,7 +11820,7 @@
         <v>8095</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A58" s="24">
         <v>56</v>
       </c>
@@ -13534,7 +11834,7 @@
         <v>7320</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A59" s="24">
         <v>57</v>
       </c>
@@ -13548,7 +11848,7 @@
         <v>6684</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A60" s="24">
         <v>58</v>
       </c>
@@ -13562,7 +11862,7 @@
         <v>6224</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A61" s="24">
         <v>59</v>
       </c>
@@ -13576,7 +11876,7 @@
         <v>5892</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A62" s="24">
         <v>60</v>
       </c>
@@ -13590,7 +11890,7 @@
         <v>5622</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A63" s="24">
         <v>61</v>
       </c>
@@ -13604,7 +11904,7 @@
         <v>5345</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A64" s="24">
         <v>62</v>
       </c>
@@ -13618,7 +11918,7 @@
         <v>4994</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A65" s="24">
         <v>63</v>
       </c>
@@ -13632,7 +11932,7 @@
         <v>4521</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A66" s="24">
         <v>64</v>
       </c>
@@ -13646,7 +11946,7 @@
         <v>3965</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A67" s="24">
         <v>65</v>
       </c>
@@ -13660,7 +11960,7 @@
         <v>3386</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A68" s="24">
         <v>66</v>
       </c>
@@ -13674,7 +11974,7 @@
         <v>2841</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A69" s="24">
         <v>67</v>
       </c>
@@ -13688,7 +11988,7 @@
         <v>2392</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A70" s="24">
         <v>68</v>
       </c>
@@ -13702,7 +12002,7 @@
         <v>2078</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A71" s="24">
         <v>69</v>
       </c>
@@ -13716,7 +12016,7 @@
         <v>1879</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A72" s="24">
         <v>70</v>
       </c>
@@ -13730,7 +12030,7 @@
         <v>1752</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A73" s="24">
         <v>71</v>
       </c>
@@ -13744,7 +12044,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A74" s="24">
         <v>72</v>
       </c>
@@ -13758,7 +12058,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A75" s="24">
         <v>73</v>
       </c>
@@ -13772,7 +12072,7 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A76" s="24">
         <v>74</v>
       </c>
@@ -13786,7 +12086,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A77" s="24">
         <v>75</v>
       </c>
@@ -13800,7 +12100,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A78" s="24">
         <v>76</v>
       </c>
@@ -13814,7 +12114,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A79" s="24">
         <v>77</v>
       </c>
@@ -13828,7 +12128,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A80" s="24">
         <v>78</v>
       </c>
@@ -13842,7 +12142,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A81" s="24">
         <v>79</v>
       </c>
@@ -13856,7 +12156,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A82" s="24">
         <v>80</v>
       </c>
@@ -13870,7 +12170,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A83" s="24">
         <v>81</v>
       </c>
@@ -13884,7 +12184,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A84" s="24">
         <v>82</v>
       </c>
@@ -13898,7 +12198,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A85" s="24">
         <v>83</v>
       </c>
@@ -13912,7 +12212,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A86" s="24">
         <v>84</v>
       </c>
@@ -13926,7 +12226,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A87" s="24">
         <v>85</v>
       </c>
@@ -13940,7 +12240,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A88" s="24">
         <v>86</v>
       </c>
@@ -13954,7 +12254,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A89" s="24">
         <v>87</v>
       </c>
@@ -13968,7 +12268,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A90" s="24">
         <v>88</v>
       </c>
@@ -13982,7 +12282,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A91" s="24">
         <v>89</v>
       </c>
@@ -13996,7 +12296,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A92" s="24">
         <v>90</v>
       </c>
@@ -14010,7 +12310,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A93" s="24">
         <v>91</v>
       </c>
@@ -14024,7 +12324,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A94" s="24">
         <v>92</v>
       </c>
@@ -14038,7 +12338,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A95" s="24">
         <v>93</v>
       </c>
@@ -14052,7 +12352,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A96" s="24">
         <v>94</v>
       </c>
@@ -14066,7 +12366,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A97" s="24">
         <v>95</v>
       </c>
@@ -14080,7 +12380,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A98" s="24">
         <v>96</v>
       </c>
@@ -14094,7 +12394,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A99" s="24">
         <v>97</v>
       </c>
@@ -14108,7 +12408,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A100" s="24">
         <v>98</v>
       </c>
@@ -14122,7 +12422,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A101" s="24">
         <v>99</v>
       </c>
@@ -14136,7 +12436,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A102" s="24">
         <v>100</v>
       </c>
@@ -14173,12 +12473,12 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.9296875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="27.54296875" customWidth="1"/>
+    <col min="1" max="1" width="27.53125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="6" t="s">
         <v>101</v>
       </c>
@@ -14189,7 +12489,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="27" t="s">
         <v>103</v>
       </c>
@@ -14198,7 +12498,7 @@
       </c>
       <c r="C2" s="22"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="27" t="s">
         <v>104</v>
       </c>
@@ -14207,7 +12507,7 @@
       </c>
       <c r="C3" s="22"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="27" t="s">
         <v>105</v>
       </c>
@@ -14216,7 +12516,7 @@
       </c>
       <c r="C4" s="22"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="27" t="s">
         <v>106</v>
       </c>
@@ -14227,7 +12527,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="27" t="s">
         <v>107</v>
       </c>
@@ -14238,7 +12538,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="27" t="s">
         <v>108</v>
       </c>
@@ -14249,7 +12549,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="27" t="s">
         <v>109</v>
       </c>
@@ -14258,7 +12558,7 @@
       </c>
       <c r="C8" s="22"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="27" t="s">
         <v>110</v>
       </c>
@@ -14267,7 +12567,7 @@
       </c>
       <c r="C9" s="22"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" s="27" t="s">
         <v>111</v>
       </c>
@@ -14300,14 +12600,14 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.9296875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="7.81640625" customWidth="1"/>
-    <col min="2" max="4" width="12.81640625" customWidth="1"/>
-    <col min="5" max="5" width="20.08984375" customWidth="1"/>
+    <col min="1" max="1" width="7.796875" customWidth="1"/>
+    <col min="2" max="4" width="12.796875" customWidth="1"/>
+    <col min="5" max="5" width="20.06640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="6" t="s">
         <v>446</v>
       </c>
@@ -14321,7 +12621,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="27" t="s">
         <v>450</v>
       </c>
@@ -14335,7 +12635,7 @@
         <v>6.6936482067843195E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="27" t="s">
         <v>451</v>
       </c>
@@ -14349,7 +12649,7 @@
         <v>6.4084654318812995E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="27" t="s">
         <v>452</v>
       </c>
@@ -14363,7 +12663,7 @@
         <v>6.0600247743600302E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="27" t="s">
         <v>453</v>
       </c>
@@ -14377,7 +12677,7 @@
         <v>6.0703878213611603E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" s="27" t="s">
         <v>454</v>
       </c>
@@ -14391,7 +12691,7 @@
         <v>6.4051402944234101E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" s="27" t="s">
         <v>455</v>
       </c>
@@ -14405,7 +12705,7 @@
         <v>7.8032799832215796E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" s="27" t="s">
         <v>456</v>
       </c>
@@ -14419,7 +12719,7 @@
         <v>9.1293942651653207E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" s="27" t="s">
         <v>457</v>
       </c>
@@ -14433,7 +12733,7 @@
         <v>7.2674867820140293E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" s="27" t="s">
         <v>458</v>
       </c>
@@ -14447,7 +12747,7 @@
         <v>9.3931647010253902E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" s="27" t="s">
         <v>459</v>
       </c>
@@ -14461,7 +12761,7 @@
         <v>0.127740354552834</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" s="27" t="s">
         <v>460</v>
       </c>
@@ -14475,7 +12775,7 @@
         <v>0.132552397573661</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" s="27" t="s">
         <v>461</v>
       </c>
@@ -14506,15 +12806,15 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.9296875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="19.453125" customWidth="1"/>
-    <col min="2" max="2" width="31.453125" customWidth="1"/>
-    <col min="3" max="3" width="11.26953125" customWidth="1"/>
-    <col min="10" max="10" width="7.453125" customWidth="1"/>
+    <col min="1" max="1" width="19.46484375" customWidth="1"/>
+    <col min="2" max="2" width="31.46484375" customWidth="1"/>
+    <col min="3" max="3" width="11.265625" customWidth="1"/>
+    <col min="10" max="10" width="7.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" s="30" t="s">
         <v>78</v>
       </c>
@@ -14543,7 +12843,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>50</v>
       </c>
@@ -14568,7 +12868,7 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>244</v>
       </c>
@@ -14593,7 +12893,7 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>245</v>
       </c>
@@ -14612,7 +12912,7 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>243</v>
       </c>
@@ -14635,7 +12935,7 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>248</v>
       </c>
@@ -14656,7 +12956,7 @@
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>251</v>
       </c>
@@ -14675,7 +12975,7 @@
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>252</v>
       </c>
@@ -14694,7 +12994,7 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>263</v>
       </c>
